--- a/mosip_master/xlsx/biometric_attribute.xlsx
+++ b/mosip_master/xlsx/biometric_attribute.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkStuff\MOSIP\githubrepos\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E7D145-8989-43CD-8FBC-E40105905544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>lang_code</t>
   </si>
@@ -132,45 +133,12 @@
   </si>
   <si>
     <t>Empreinte de l'iris droit</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t>الإبهام</t>
-  </si>
-  <si>
-    <t>اللوح الأيمن</t>
-  </si>
-  <si>
-    <t>اللوح الأيسر</t>
-  </si>
-  <si>
-    <t>اليسار ايريس</t>
-  </si>
-  <si>
-    <t>حق ايريس</t>
-  </si>
-  <si>
-    <t>طباعة الإبهام الأيمن والأيسر</t>
-  </si>
-  <si>
-    <t>طباعة اللوح الأيمن</t>
-  </si>
-  <si>
-    <t>طباعة اللوح الأيسر</t>
-  </si>
-  <si>
-    <t>طباعة القزحية اليمنى</t>
-  </si>
-  <si>
-    <t>طباعة القزحية اليسرى</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -510,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A12" sqref="A12:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,104 +713,44 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
